--- a/Code/Results/Cases/Case_4_254/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_254/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.03664082106671</v>
+        <v>1.060573037864563</v>
       </c>
       <c r="D2">
-        <v>1.054575706752485</v>
+        <v>1.067518097449828</v>
       </c>
       <c r="E2">
-        <v>1.05431566507644</v>
+        <v>1.073917377219075</v>
       </c>
       <c r="F2">
-        <v>1.061051078515425</v>
+        <v>1.080518332184557</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066384404322206</v>
+        <v>1.055056382191564</v>
       </c>
       <c r="J2">
-        <v>1.057778238697551</v>
+        <v>1.065553189663523</v>
       </c>
       <c r="K2">
-        <v>1.065323681950923</v>
+        <v>1.070225745759889</v>
       </c>
       <c r="L2">
-        <v>1.065066812558249</v>
+        <v>1.07660796823292</v>
       </c>
       <c r="M2">
-        <v>1.07172068208947</v>
+        <v>1.083191556995883</v>
       </c>
       <c r="N2">
-        <v>1.059280405125361</v>
+        <v>1.067066397413504</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.041439883890958</v>
+        <v>1.061582598243144</v>
       </c>
       <c r="D3">
-        <v>1.058446039214834</v>
+        <v>1.068350431050944</v>
       </c>
       <c r="E3">
-        <v>1.05870765925787</v>
+        <v>1.074891594871721</v>
       </c>
       <c r="F3">
-        <v>1.065544228055288</v>
+        <v>1.081516212415311</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068247002980647</v>
+        <v>1.055379654381123</v>
       </c>
       <c r="J3">
-        <v>1.060861245514409</v>
+        <v>1.066216167035869</v>
       </c>
       <c r="K3">
-        <v>1.06838196407389</v>
+        <v>1.070873838941376</v>
       </c>
       <c r="L3">
-        <v>1.068640677310662</v>
+        <v>1.077398825500713</v>
       </c>
       <c r="M3">
-        <v>1.075401907801907</v>
+        <v>1.084007273836979</v>
       </c>
       <c r="N3">
-        <v>1.062367790165526</v>
+        <v>1.067730316289764</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.044481302326689</v>
+        <v>1.062236242156173</v>
       </c>
       <c r="D4">
-        <v>1.060901060290124</v>
+        <v>1.068889306224261</v>
       </c>
       <c r="E4">
-        <v>1.061496002476332</v>
+        <v>1.075522695370386</v>
       </c>
       <c r="F4">
-        <v>1.068396886811071</v>
+        <v>1.082162655969556</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069417280598727</v>
+        <v>1.055587713987035</v>
       </c>
       <c r="J4">
-        <v>1.062811772705886</v>
+        <v>1.066644913337262</v>
       </c>
       <c r="K4">
-        <v>1.070316091286154</v>
+        <v>1.071292846995463</v>
       </c>
       <c r="L4">
-        <v>1.070904830181034</v>
+        <v>1.077910655308213</v>
       </c>
       <c r="M4">
-        <v>1.077734376546363</v>
+        <v>1.084535224703967</v>
       </c>
       <c r="N4">
-        <v>1.064321087329343</v>
+        <v>1.068159671460083</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.045745179316035</v>
+        <v>1.062511127072667</v>
       </c>
       <c r="D5">
-        <v>1.061921737937148</v>
+        <v>1.069115920119744</v>
       </c>
       <c r="E5">
-        <v>1.062655855966518</v>
+        <v>1.075788180631375</v>
       </c>
       <c r="F5">
-        <v>1.069583515846531</v>
+        <v>1.082434599036772</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069901125418301</v>
+        <v>1.05567491391933</v>
       </c>
       <c r="J5">
-        <v>1.063621492394643</v>
+        <v>1.066825099121293</v>
       </c>
       <c r="K5">
-        <v>1.071118815143681</v>
+        <v>1.071468913108022</v>
       </c>
       <c r="L5">
-        <v>1.07184548647306</v>
+        <v>1.078125849876473</v>
       </c>
       <c r="M5">
-        <v>1.078703485948345</v>
+        <v>1.084757204966335</v>
       </c>
       <c r="N5">
-        <v>1.065131956912933</v>
+        <v>1.068340113128594</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.045956541530637</v>
+        <v>1.062557286898229</v>
       </c>
       <c r="D6">
-        <v>1.062092456177954</v>
+        <v>1.069153973711902</v>
       </c>
       <c r="E6">
-        <v>1.062849888243355</v>
+        <v>1.075832766752699</v>
       </c>
       <c r="F6">
-        <v>1.069782028729514</v>
+        <v>1.082480269896314</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069981894142977</v>
+        <v>1.055689539425115</v>
       </c>
       <c r="J6">
-        <v>1.063756854627112</v>
+        <v>1.066855349619114</v>
       </c>
       <c r="K6">
-        <v>1.071252996661473</v>
+        <v>1.071498470385545</v>
       </c>
       <c r="L6">
-        <v>1.072002781322968</v>
+        <v>1.078161983219027</v>
       </c>
       <c r="M6">
-        <v>1.07886554281434</v>
+        <v>1.084794478148274</v>
       </c>
       <c r="N6">
-        <v>1.065267511375299</v>
+        <v>1.068370406585592</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.044498247489823</v>
+        <v>1.062239914817074</v>
       </c>
       <c r="D7">
-        <v>1.060914742965809</v>
+        <v>1.068892333973351</v>
       </c>
       <c r="E7">
-        <v>1.061511548493874</v>
+        <v>1.075526242128209</v>
       </c>
       <c r="F7">
-        <v>1.068412791624224</v>
+        <v>1.082166288987125</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069423777448802</v>
+        <v>1.055588880211641</v>
       </c>
       <c r="J7">
-        <v>1.06282263217807</v>
+        <v>1.066647321221805</v>
       </c>
       <c r="K7">
-        <v>1.070326857684234</v>
+        <v>1.071295199933852</v>
       </c>
       <c r="L7">
-        <v>1.070917442759698</v>
+        <v>1.077913530665769</v>
       </c>
       <c r="M7">
-        <v>1.077747370353458</v>
+        <v>1.084538190699339</v>
       </c>
       <c r="N7">
-        <v>1.064331962223223</v>
+        <v>1.068162082764098</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.038276264346134</v>
+        <v>1.060914142261487</v>
       </c>
       <c r="D8">
-        <v>1.055894167490385</v>
+        <v>1.067799325853396</v>
       </c>
       <c r="E8">
-        <v>1.055811335953626</v>
+        <v>1.074246469714405</v>
       </c>
       <c r="F8">
-        <v>1.06258117722223</v>
+        <v>1.080855414963273</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067021254854852</v>
+        <v>1.055165865016801</v>
       </c>
       <c r="J8">
-        <v>1.05882955798401</v>
+        <v>1.065777296179729</v>
       </c>
       <c r="K8">
-        <v>1.066366725320727</v>
+        <v>1.070444844254737</v>
       </c>
       <c r="L8">
-        <v>1.066284873434313</v>
+        <v>1.076875222578449</v>
       </c>
       <c r="M8">
-        <v>1.072975270784062</v>
+        <v>1.083467205427748</v>
       </c>
       <c r="N8">
-        <v>1.060333217405796</v>
+        <v>1.067290822186669</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.02679619082166</v>
+        <v>1.058580979287228</v>
       </c>
       <c r="D9">
-        <v>1.046650351476166</v>
+        <v>1.065875643806631</v>
       </c>
       <c r="E9">
-        <v>1.045334705016337</v>
+        <v>1.071996875880441</v>
       </c>
       <c r="F9">
-        <v>1.051863808012519</v>
+        <v>1.078551260605629</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062509226093329</v>
+        <v>1.054411905038878</v>
       </c>
       <c r="J9">
-        <v>1.051436940936489</v>
+        <v>1.064242357922203</v>
       </c>
       <c r="K9">
-        <v>1.059029330744505</v>
+        <v>1.068943747393124</v>
       </c>
       <c r="L9">
-        <v>1.057732715997318</v>
+        <v>1.07504633179618</v>
       </c>
       <c r="M9">
-        <v>1.064167963504249</v>
+        <v>1.081581004989244</v>
       </c>
       <c r="N9">
-        <v>1.052930101994122</v>
+        <v>1.065753704140757</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.018755797780262</v>
+        <v>1.057027596973701</v>
       </c>
       <c r="D10">
-        <v>1.040192618073836</v>
+        <v>1.064594817352939</v>
       </c>
       <c r="E10">
-        <v>1.03802720664</v>
+        <v>1.070500917453766</v>
       </c>
       <c r="F10">
-        <v>1.044388940349685</v>
+        <v>1.077019094262241</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059297830403813</v>
+        <v>1.053903537785736</v>
       </c>
       <c r="J10">
-        <v>1.046244535508824</v>
+        <v>1.063217864188861</v>
       </c>
       <c r="K10">
-        <v>1.053872218570097</v>
+        <v>1.067941267449961</v>
       </c>
       <c r="L10">
-        <v>1.051742212570453</v>
+        <v>1.073827613833101</v>
       </c>
       <c r="M10">
-        <v>1.058000465535016</v>
+        <v>1.080324265573983</v>
       </c>
       <c r="N10">
-        <v>1.047730322755172</v>
+        <v>1.064727755508803</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.015172693651705</v>
+        <v>1.056355459644153</v>
       </c>
       <c r="D11">
-        <v>1.037319464109092</v>
+        <v>1.064040603030793</v>
       </c>
       <c r="E11">
-        <v>1.034778454931175</v>
+        <v>1.06985405614781</v>
       </c>
       <c r="F11">
-        <v>1.041065916504657</v>
+        <v>1.076356594129239</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057855097321226</v>
+        <v>1.053682055374132</v>
       </c>
       <c r="J11">
-        <v>1.043927614964193</v>
+        <v>1.062773969605006</v>
       </c>
       <c r="K11">
-        <v>1.051570313439048</v>
+        <v>1.067506775992867</v>
       </c>
       <c r="L11">
-        <v>1.04907300974798</v>
+        <v>1.07330003313362</v>
       </c>
       <c r="M11">
-        <v>1.055252829099435</v>
+        <v>1.079780265520282</v>
       </c>
       <c r="N11">
-        <v>1.045410111917613</v>
+        <v>1.064283230543723</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.013825611103521</v>
+        <v>1.056105871537194</v>
       </c>
       <c r="D12">
-        <v>1.036240058237895</v>
+        <v>1.063834802920896</v>
       </c>
       <c r="E12">
-        <v>1.033558292169576</v>
+        <v>1.069613918872909</v>
       </c>
       <c r="F12">
-        <v>1.039817879874369</v>
+        <v>1.076110653844967</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057311000368021</v>
+        <v>1.053599583541247</v>
       </c>
       <c r="J12">
-        <v>1.043056156921838</v>
+        <v>1.062609045567798</v>
       </c>
       <c r="K12">
-        <v>1.050704401553727</v>
+        <v>1.067345325372418</v>
       </c>
       <c r="L12">
-        <v>1.04806962272186</v>
+        <v>1.073104086699312</v>
       </c>
       <c r="M12">
-        <v>1.054220024395091</v>
+        <v>1.079578226883224</v>
       </c>
       <c r="N12">
-        <v>1.04453741630488</v>
+        <v>1.064118072295465</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.014115311256793</v>
+        <v>1.056159405695441</v>
       </c>
       <c r="D13">
-        <v>1.036472156688453</v>
+        <v>1.063878945024492</v>
       </c>
       <c r="E13">
-        <v>1.03382064130628</v>
+        <v>1.06966542297446</v>
       </c>
       <c r="F13">
-        <v>1.04008622124721</v>
+        <v>1.076163402442246</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057428088265451</v>
+        <v>1.053617283228547</v>
       </c>
       <c r="J13">
-        <v>1.043243587881096</v>
+        <v>1.062644424217431</v>
       </c>
       <c r="K13">
-        <v>1.050890644105889</v>
+        <v>1.067379959835884</v>
       </c>
       <c r="L13">
-        <v>1.04828540273243</v>
+        <v>1.073146116935011</v>
       </c>
       <c r="M13">
-        <v>1.054442127688913</v>
+        <v>1.079621563614357</v>
       </c>
       <c r="N13">
-        <v>1.044725113437599</v>
+        <v>1.064153501186839</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.015061678448756</v>
+        <v>1.056334827109193</v>
       </c>
       <c r="D14">
-        <v>1.03723049254853</v>
+        <v>1.064023590305242</v>
       </c>
       <c r="E14">
-        <v>1.034677874295343</v>
+        <v>1.069834203550425</v>
       </c>
       <c r="F14">
-        <v>1.040963037731226</v>
+        <v>1.076336261731838</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057810291598227</v>
+        <v>1.053675242374178</v>
       </c>
       <c r="J14">
-        <v>1.04385580462928</v>
+        <v>1.062760337782662</v>
       </c>
       <c r="K14">
-        <v>1.051498962134329</v>
+        <v>1.067493431678101</v>
       </c>
       <c r="L14">
-        <v>1.048990316481109</v>
+        <v>1.073283835717621</v>
       </c>
       <c r="M14">
-        <v>1.05516771003732</v>
+        <v>1.079763564384485</v>
       </c>
       <c r="N14">
-        <v>1.045338199603788</v>
+        <v>1.064269579362628</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.015642597356763</v>
+        <v>1.056442919799477</v>
       </c>
       <c r="D15">
-        <v>1.037696093488535</v>
+        <v>1.064112718982333</v>
       </c>
       <c r="E15">
-        <v>1.035204241335144</v>
+        <v>1.069938212855099</v>
       </c>
       <c r="F15">
-        <v>1.041501432445739</v>
+        <v>1.076442784855326</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058044681597978</v>
+        <v>1.053710925973519</v>
       </c>
       <c r="J15">
-        <v>1.044231556699631</v>
+        <v>1.062831750430155</v>
       </c>
       <c r="K15">
-        <v>1.051872308214244</v>
+        <v>1.067563337340617</v>
       </c>
       <c r="L15">
-        <v>1.049423037553099</v>
+        <v>1.073368691544934</v>
       </c>
       <c r="M15">
-        <v>1.055613127642578</v>
+        <v>1.079851059371469</v>
       </c>
       <c r="N15">
-        <v>1.045714485285178</v>
+        <v>1.064341093424272</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.018991381532202</v>
+        <v>1.057072214817931</v>
       </c>
       <c r="D16">
-        <v>1.040381626341709</v>
+        <v>1.064631607065513</v>
       </c>
       <c r="E16">
-        <v>1.03824097311617</v>
+        <v>1.070543866509607</v>
       </c>
       <c r="F16">
-        <v>1.044607596801919</v>
+        <v>1.077063082048349</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059392450171766</v>
+        <v>1.053918208301536</v>
       </c>
       <c r="J16">
-        <v>1.046396811224122</v>
+        <v>1.06324731811502</v>
       </c>
       <c r="K16">
-        <v>1.054023492877467</v>
+        <v>1.067970094608693</v>
       </c>
       <c r="L16">
-        <v>1.051917721147565</v>
+        <v>1.073862630468873</v>
       </c>
       <c r="M16">
-        <v>1.058181140487937</v>
+        <v>1.080360372842412</v>
       </c>
       <c r="N16">
-        <v>1.047882814719452</v>
+        <v>1.064757251262915</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.02106417998488</v>
+        <v>1.057467085737419</v>
       </c>
       <c r="D17">
-        <v>1.042045165291633</v>
+        <v>1.064957197413626</v>
       </c>
       <c r="E17">
-        <v>1.040122698666876</v>
+        <v>1.070924018192808</v>
       </c>
       <c r="F17">
-        <v>1.046532383049496</v>
+        <v>1.077452429811005</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060223652528292</v>
+        <v>1.054047868208956</v>
       </c>
       <c r="J17">
-        <v>1.04773628415914</v>
+        <v>1.063507917621736</v>
       </c>
       <c r="K17">
-        <v>1.055354074725464</v>
+        <v>1.068225133079193</v>
       </c>
       <c r="L17">
-        <v>1.053461995084714</v>
+        <v>1.074172501172912</v>
       </c>
       <c r="M17">
-        <v>1.059770921771211</v>
+        <v>1.08067989945022</v>
       </c>
       <c r="N17">
-        <v>1.049224189859678</v>
+        <v>1.065018220850822</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.022263473287</v>
+        <v>1.057697454270839</v>
       </c>
       <c r="D18">
-        <v>1.043008103539964</v>
+        <v>1.065147146517236</v>
       </c>
       <c r="E18">
-        <v>1.041212170702672</v>
+        <v>1.071145840881533</v>
       </c>
       <c r="F18">
-        <v>1.047646799071378</v>
+        <v>1.077679620221188</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.06070347026034</v>
+        <v>1.054123365779453</v>
       </c>
       <c r="J18">
-        <v>1.048510998645128</v>
+        <v>1.063659893655628</v>
       </c>
       <c r="K18">
-        <v>1.056123576809561</v>
+        <v>1.068373853005375</v>
       </c>
       <c r="L18">
-        <v>1.054355524925302</v>
+        <v>1.074353256224744</v>
       </c>
       <c r="M18">
-        <v>1.060690823224593</v>
+        <v>1.080866290888062</v>
       </c>
       <c r="N18">
-        <v>1.050000004529097</v>
+        <v>1.065170412708114</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.022670776338642</v>
+        <v>1.057776011948907</v>
       </c>
       <c r="D19">
-        <v>1.043335208021253</v>
+        <v>1.065211920631361</v>
       </c>
       <c r="E19">
-        <v>1.041582298748699</v>
+        <v>1.071221491357424</v>
       </c>
       <c r="F19">
-        <v>1.048025403549743</v>
+        <v>1.077757101595923</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060866236757204</v>
+        <v>1.054149086294008</v>
       </c>
       <c r="J19">
-        <v>1.04877405662014</v>
+        <v>1.063711708917158</v>
       </c>
       <c r="K19">
-        <v>1.056384852759937</v>
+        <v>1.068424555904981</v>
       </c>
       <c r="L19">
-        <v>1.054658989055536</v>
+        <v>1.074414891162454</v>
       </c>
       <c r="M19">
-        <v>1.061003250633406</v>
+        <v>1.080929848409274</v>
       </c>
       <c r="N19">
-        <v>1.050263436076606</v>
+        <v>1.065222301553259</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.020842801552076</v>
+        <v>1.057424714959773</v>
       </c>
       <c r="D20">
-        <v>1.041867450660775</v>
+        <v>1.064922260738357</v>
       </c>
       <c r="E20">
-        <v>1.039921650927482</v>
+        <v>1.070883222547021</v>
       </c>
       <c r="F20">
-        <v>1.046326733264899</v>
+        <v>1.077410647119308</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060134992975662</v>
+        <v>1.054033970461048</v>
       </c>
       <c r="J20">
-        <v>1.0475932555573</v>
+        <v>1.06347996057548</v>
       </c>
       <c r="K20">
-        <v>1.055212002720535</v>
+        <v>1.068197773966788</v>
       </c>
       <c r="L20">
-        <v>1.053297060121051</v>
+        <v>1.074139253659175</v>
       </c>
       <c r="M20">
-        <v>1.059601122197527</v>
+        <v>1.080645615508411</v>
       </c>
       <c r="N20">
-        <v>1.049080958140817</v>
+        <v>1.064990224102353</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.014783450504753</v>
+        <v>1.056283167839572</v>
       </c>
       <c r="D21">
-        <v>1.03700752331726</v>
+        <v>1.063980994218394</v>
       </c>
       <c r="E21">
-        <v>1.034425817438624</v>
+        <v>1.069784498121802</v>
       </c>
       <c r="F21">
-        <v>1.04070522204463</v>
+        <v>1.07628535505936</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057697971693018</v>
+        <v>1.053658180462693</v>
       </c>
       <c r="J21">
-        <v>1.043675826187381</v>
+        <v>1.062726205276909</v>
       </c>
       <c r="K21">
-        <v>1.051320132555303</v>
+        <v>1.067460018731884</v>
       </c>
       <c r="L21">
-        <v>1.048783071354628</v>
+        <v>1.073243280396678</v>
       </c>
       <c r="M21">
-        <v>1.054954386482358</v>
+        <v>1.079721747940335</v>
       </c>
       <c r="N21">
-        <v>1.045157965571857</v>
+        <v>1.064235398384802</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.010879714403356</v>
+        <v>1.055565858020399</v>
       </c>
       <c r="D22">
-        <v>1.033881027325197</v>
+        <v>1.063389528818651</v>
       </c>
       <c r="E22">
-        <v>1.030892257214579</v>
+        <v>1.069094472660991</v>
       </c>
       <c r="F22">
-        <v>1.037090980737848</v>
+        <v>1.075578659892344</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056118068245931</v>
+        <v>1.053420729707932</v>
       </c>
       <c r="J22">
-        <v>1.041149703504191</v>
+        <v>1.062252047695045</v>
       </c>
       <c r="K22">
-        <v>1.04880990423789</v>
+        <v>1.066995809254553</v>
       </c>
       <c r="L22">
-        <v>1.045875606912016</v>
+        <v>1.072680065544719</v>
       </c>
       <c r="M22">
-        <v>1.051961808099952</v>
+        <v>1.079141033478209</v>
       </c>
       <c r="N22">
-        <v>1.042628255504707</v>
+        <v>1.063760567444785</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.012958385440285</v>
+        <v>1.055946077000973</v>
       </c>
       <c r="D23">
-        <v>1.035545382927026</v>
+        <v>1.063703042707916</v>
       </c>
       <c r="E23">
-        <v>1.03277312552455</v>
+        <v>1.069460193418084</v>
       </c>
       <c r="F23">
-        <v>1.039014782638876</v>
+        <v>1.075953214306122</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056960249854962</v>
+        <v>1.053546718270778</v>
       </c>
       <c r="J23">
-        <v>1.042495021754946</v>
+        <v>1.062503430327909</v>
       </c>
       <c r="K23">
-        <v>1.050146810065648</v>
+        <v>1.067241928784905</v>
       </c>
       <c r="L23">
-        <v>1.047423699447249</v>
+        <v>1.072978624882654</v>
       </c>
       <c r="M23">
-        <v>1.053555182685583</v>
+        <v>1.079448866014607</v>
       </c>
       <c r="N23">
-        <v>1.043975484261688</v>
+        <v>1.064012307069822</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.020942862954865</v>
+        <v>1.057443860345067</v>
       </c>
       <c r="D24">
-        <v>1.041947775000415</v>
+        <v>1.064938047001446</v>
       </c>
       <c r="E24">
-        <v>1.040012520745866</v>
+        <v>1.070901656075638</v>
       </c>
       <c r="F24">
-        <v>1.046419683081651</v>
+        <v>1.077429526639733</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.06017506986251</v>
+        <v>1.054040250659434</v>
       </c>
       <c r="J24">
-        <v>1.047657904312047</v>
+        <v>1.063492593245484</v>
       </c>
       <c r="K24">
-        <v>1.055276219312499</v>
+        <v>1.068210136494698</v>
       </c>
       <c r="L24">
-        <v>1.053371609395527</v>
+        <v>1.074154276740242</v>
       </c>
       <c r="M24">
-        <v>1.059677870110528</v>
+        <v>1.08066110689355</v>
       </c>
       <c r="N24">
-        <v>1.049145698704211</v>
+        <v>1.065002874712198</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.029829181042513</v>
+        <v>1.059183797082044</v>
       </c>
       <c r="D25">
-        <v>1.049089938596101</v>
+        <v>1.066372678867499</v>
       </c>
       <c r="E25">
-        <v>1.048097593368759</v>
+        <v>1.07257778911539</v>
       </c>
       <c r="F25">
-        <v>1.05469009133564</v>
+        <v>1.079146249928127</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063710290269613</v>
+        <v>1.054607832958299</v>
       </c>
       <c r="J25">
-        <v>1.053392749564216</v>
+        <v>1.06463939079545</v>
       </c>
       <c r="K25">
-        <v>1.060971160843464</v>
+        <v>1.069332128124436</v>
       </c>
       <c r="L25">
-        <v>1.059992472806829</v>
+        <v>1.075519051541437</v>
       </c>
       <c r="M25">
-        <v>1.066494847410449</v>
+        <v>1.082068508217472</v>
       </c>
       <c r="N25">
-        <v>1.054888688094435</v>
+        <v>1.066151300846224</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_254/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_254/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.060573037864563</v>
+        <v>1.036640821066711</v>
       </c>
       <c r="D2">
-        <v>1.067518097449828</v>
+        <v>1.054575706752486</v>
       </c>
       <c r="E2">
-        <v>1.073917377219075</v>
+        <v>1.054315665076441</v>
       </c>
       <c r="F2">
-        <v>1.080518332184557</v>
+        <v>1.061051078515426</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055056382191564</v>
+        <v>1.066384404322206</v>
       </c>
       <c r="J2">
-        <v>1.065553189663523</v>
+        <v>1.057778238697552</v>
       </c>
       <c r="K2">
-        <v>1.070225745759889</v>
+        <v>1.065323681950924</v>
       </c>
       <c r="L2">
-        <v>1.07660796823292</v>
+        <v>1.06506681255825</v>
       </c>
       <c r="M2">
-        <v>1.083191556995883</v>
+        <v>1.07172068208947</v>
       </c>
       <c r="N2">
-        <v>1.067066397413504</v>
+        <v>1.059280405125362</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061582598243144</v>
+        <v>1.041439883890957</v>
       </c>
       <c r="D3">
-        <v>1.068350431050944</v>
+        <v>1.058446039214833</v>
       </c>
       <c r="E3">
-        <v>1.074891594871721</v>
+        <v>1.058707659257869</v>
       </c>
       <c r="F3">
-        <v>1.081516212415311</v>
+        <v>1.065544228055287</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055379654381123</v>
+        <v>1.068247002980646</v>
       </c>
       <c r="J3">
-        <v>1.066216167035869</v>
+        <v>1.060861245514409</v>
       </c>
       <c r="K3">
-        <v>1.070873838941376</v>
+        <v>1.068381964073889</v>
       </c>
       <c r="L3">
-        <v>1.077398825500713</v>
+        <v>1.068640677310661</v>
       </c>
       <c r="M3">
-        <v>1.084007273836979</v>
+        <v>1.075401907801907</v>
       </c>
       <c r="N3">
-        <v>1.067730316289764</v>
+        <v>1.062367790165525</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.062236242156173</v>
+        <v>1.044481302326688</v>
       </c>
       <c r="D4">
-        <v>1.068889306224261</v>
+        <v>1.060901060290123</v>
       </c>
       <c r="E4">
-        <v>1.075522695370386</v>
+        <v>1.061496002476331</v>
       </c>
       <c r="F4">
-        <v>1.082162655969556</v>
+        <v>1.06839688681107</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055587713987035</v>
+        <v>1.069417280598727</v>
       </c>
       <c r="J4">
-        <v>1.066644913337262</v>
+        <v>1.062811772705886</v>
       </c>
       <c r="K4">
-        <v>1.071292846995463</v>
+        <v>1.070316091286154</v>
       </c>
       <c r="L4">
-        <v>1.077910655308213</v>
+        <v>1.070904830181034</v>
       </c>
       <c r="M4">
-        <v>1.084535224703967</v>
+        <v>1.077734376546363</v>
       </c>
       <c r="N4">
-        <v>1.068159671460083</v>
+        <v>1.064321087329342</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.062511127072667</v>
+        <v>1.045745179316034</v>
       </c>
       <c r="D5">
-        <v>1.069115920119744</v>
+        <v>1.061921737937147</v>
       </c>
       <c r="E5">
-        <v>1.075788180631375</v>
+        <v>1.062655855966517</v>
       </c>
       <c r="F5">
-        <v>1.082434599036772</v>
+        <v>1.06958351584653</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05567491391933</v>
+        <v>1.0699011254183</v>
       </c>
       <c r="J5">
-        <v>1.066825099121293</v>
+        <v>1.063621492394642</v>
       </c>
       <c r="K5">
-        <v>1.071468913108022</v>
+        <v>1.07111881514368</v>
       </c>
       <c r="L5">
-        <v>1.078125849876473</v>
+        <v>1.071845486473059</v>
       </c>
       <c r="M5">
-        <v>1.084757204966335</v>
+        <v>1.078703485948344</v>
       </c>
       <c r="N5">
-        <v>1.068340113128594</v>
+        <v>1.065131956912932</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.062557286898229</v>
+        <v>1.045956541530636</v>
       </c>
       <c r="D6">
-        <v>1.069153973711902</v>
+        <v>1.062092456177954</v>
       </c>
       <c r="E6">
-        <v>1.075832766752699</v>
+        <v>1.062849888243355</v>
       </c>
       <c r="F6">
-        <v>1.082480269896314</v>
+        <v>1.069782028729514</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055689539425115</v>
+        <v>1.069981894142977</v>
       </c>
       <c r="J6">
-        <v>1.066855349619114</v>
+        <v>1.063756854627112</v>
       </c>
       <c r="K6">
-        <v>1.071498470385545</v>
+        <v>1.071252996661473</v>
       </c>
       <c r="L6">
-        <v>1.078161983219027</v>
+        <v>1.072002781322968</v>
       </c>
       <c r="M6">
-        <v>1.084794478148274</v>
+        <v>1.07886554281434</v>
       </c>
       <c r="N6">
-        <v>1.068370406585592</v>
+        <v>1.065267511375299</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.062239914817074</v>
+        <v>1.044498247489821</v>
       </c>
       <c r="D7">
-        <v>1.068892333973351</v>
+        <v>1.060914742965808</v>
       </c>
       <c r="E7">
-        <v>1.075526242128209</v>
+        <v>1.061511548493874</v>
       </c>
       <c r="F7">
-        <v>1.082166288987125</v>
+        <v>1.068412791624223</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055588880211641</v>
+        <v>1.069423777448801</v>
       </c>
       <c r="J7">
-        <v>1.066647321221805</v>
+        <v>1.06282263217807</v>
       </c>
       <c r="K7">
-        <v>1.071295199933852</v>
+        <v>1.070326857684233</v>
       </c>
       <c r="L7">
-        <v>1.077913530665769</v>
+        <v>1.070917442759697</v>
       </c>
       <c r="M7">
-        <v>1.084538190699339</v>
+        <v>1.077747370353457</v>
       </c>
       <c r="N7">
-        <v>1.068162082764098</v>
+        <v>1.064331962223222</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.060914142261487</v>
+        <v>1.038276264346132</v>
       </c>
       <c r="D8">
-        <v>1.067799325853396</v>
+        <v>1.055894167490383</v>
       </c>
       <c r="E8">
-        <v>1.074246469714405</v>
+        <v>1.055811335953623</v>
       </c>
       <c r="F8">
-        <v>1.080855414963273</v>
+        <v>1.062581177222228</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055165865016801</v>
+        <v>1.06702125485485</v>
       </c>
       <c r="J8">
-        <v>1.065777296179729</v>
+        <v>1.058829557984007</v>
       </c>
       <c r="K8">
-        <v>1.070444844254737</v>
+        <v>1.066366725320724</v>
       </c>
       <c r="L8">
-        <v>1.076875222578449</v>
+        <v>1.066284873434311</v>
       </c>
       <c r="M8">
-        <v>1.083467205427748</v>
+        <v>1.072975270784059</v>
       </c>
       <c r="N8">
-        <v>1.067290822186669</v>
+        <v>1.060333217405793</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.058580979287228</v>
+        <v>1.026796190821659</v>
       </c>
       <c r="D9">
-        <v>1.065875643806631</v>
+        <v>1.046650351476166</v>
       </c>
       <c r="E9">
-        <v>1.071996875880441</v>
+        <v>1.045334705016336</v>
       </c>
       <c r="F9">
-        <v>1.078551260605629</v>
+        <v>1.051863808012518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054411905038878</v>
+        <v>1.062509226093328</v>
       </c>
       <c r="J9">
-        <v>1.064242357922203</v>
+        <v>1.051436940936488</v>
       </c>
       <c r="K9">
-        <v>1.068943747393124</v>
+        <v>1.059029330744504</v>
       </c>
       <c r="L9">
-        <v>1.07504633179618</v>
+        <v>1.057732715997317</v>
       </c>
       <c r="M9">
-        <v>1.081581004989244</v>
+        <v>1.064167963504248</v>
       </c>
       <c r="N9">
-        <v>1.065753704140757</v>
+        <v>1.052930101994121</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.057027596973701</v>
+        <v>1.018755797780262</v>
       </c>
       <c r="D10">
-        <v>1.064594817352939</v>
+        <v>1.040192618073836</v>
       </c>
       <c r="E10">
-        <v>1.070500917453766</v>
+        <v>1.03802720664</v>
       </c>
       <c r="F10">
-        <v>1.077019094262241</v>
+        <v>1.044388940349684</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053903537785736</v>
+        <v>1.059297830403813</v>
       </c>
       <c r="J10">
-        <v>1.063217864188861</v>
+        <v>1.046244535508824</v>
       </c>
       <c r="K10">
-        <v>1.067941267449961</v>
+        <v>1.053872218570097</v>
       </c>
       <c r="L10">
-        <v>1.073827613833101</v>
+        <v>1.051742212570453</v>
       </c>
       <c r="M10">
-        <v>1.080324265573983</v>
+        <v>1.058000465535016</v>
       </c>
       <c r="N10">
-        <v>1.064727755508803</v>
+        <v>1.047730322755172</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056355459644153</v>
+        <v>1.015172693651703</v>
       </c>
       <c r="D11">
-        <v>1.064040603030793</v>
+        <v>1.037319464109091</v>
       </c>
       <c r="E11">
-        <v>1.06985405614781</v>
+        <v>1.034778454931173</v>
       </c>
       <c r="F11">
-        <v>1.076356594129239</v>
+        <v>1.041065916504655</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053682055374132</v>
+        <v>1.057855097321224</v>
       </c>
       <c r="J11">
-        <v>1.062773969605006</v>
+        <v>1.043927614964191</v>
       </c>
       <c r="K11">
-        <v>1.067506775992867</v>
+        <v>1.051570313439047</v>
       </c>
       <c r="L11">
-        <v>1.07330003313362</v>
+        <v>1.049073009747979</v>
       </c>
       <c r="M11">
-        <v>1.079780265520282</v>
+        <v>1.055252829099433</v>
       </c>
       <c r="N11">
-        <v>1.064283230543723</v>
+        <v>1.045410111917612</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.056105871537194</v>
+        <v>1.013825611103522</v>
       </c>
       <c r="D12">
-        <v>1.063834802920896</v>
+        <v>1.036240058237895</v>
       </c>
       <c r="E12">
-        <v>1.069613918872909</v>
+        <v>1.033558292169577</v>
       </c>
       <c r="F12">
-        <v>1.076110653844967</v>
+        <v>1.039817879874369</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053599583541247</v>
+        <v>1.057311000368021</v>
       </c>
       <c r="J12">
-        <v>1.062609045567798</v>
+        <v>1.043056156921838</v>
       </c>
       <c r="K12">
-        <v>1.067345325372418</v>
+        <v>1.050704401553727</v>
       </c>
       <c r="L12">
-        <v>1.073104086699312</v>
+        <v>1.048069622721861</v>
       </c>
       <c r="M12">
-        <v>1.079578226883224</v>
+        <v>1.054220024395091</v>
       </c>
       <c r="N12">
-        <v>1.064118072295465</v>
+        <v>1.04453741630488</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.056159405695441</v>
+        <v>1.014115311256794</v>
       </c>
       <c r="D13">
-        <v>1.063878945024492</v>
+        <v>1.036472156688454</v>
       </c>
       <c r="E13">
-        <v>1.06966542297446</v>
+        <v>1.033820641306281</v>
       </c>
       <c r="F13">
-        <v>1.076163402442246</v>
+        <v>1.040086221247211</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053617283228547</v>
+        <v>1.057428088265452</v>
       </c>
       <c r="J13">
-        <v>1.062644424217431</v>
+        <v>1.043243587881097</v>
       </c>
       <c r="K13">
-        <v>1.067379959835884</v>
+        <v>1.05089064410589</v>
       </c>
       <c r="L13">
-        <v>1.073146116935011</v>
+        <v>1.048285402732431</v>
       </c>
       <c r="M13">
-        <v>1.079621563614357</v>
+        <v>1.054442127688914</v>
       </c>
       <c r="N13">
-        <v>1.064153501186839</v>
+        <v>1.0447251134376</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056334827109193</v>
+        <v>1.015061678448755</v>
       </c>
       <c r="D14">
-        <v>1.064023590305242</v>
+        <v>1.037230492548529</v>
       </c>
       <c r="E14">
-        <v>1.069834203550425</v>
+        <v>1.034677874295341</v>
       </c>
       <c r="F14">
-        <v>1.076336261731838</v>
+        <v>1.040963037731225</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053675242374178</v>
+        <v>1.057810291598226</v>
       </c>
       <c r="J14">
-        <v>1.062760337782662</v>
+        <v>1.043855804629279</v>
       </c>
       <c r="K14">
-        <v>1.067493431678101</v>
+        <v>1.051498962134327</v>
       </c>
       <c r="L14">
-        <v>1.073283835717621</v>
+        <v>1.048990316481108</v>
       </c>
       <c r="M14">
-        <v>1.079763564384485</v>
+        <v>1.055167710037319</v>
       </c>
       <c r="N14">
-        <v>1.064269579362628</v>
+        <v>1.045338199603786</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.056442919799477</v>
+        <v>1.015642597356763</v>
       </c>
       <c r="D15">
-        <v>1.064112718982333</v>
+        <v>1.037696093488536</v>
       </c>
       <c r="E15">
-        <v>1.069938212855099</v>
+        <v>1.035204241335144</v>
       </c>
       <c r="F15">
-        <v>1.076442784855326</v>
+        <v>1.041501432445739</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053710925973519</v>
+        <v>1.058044681597978</v>
       </c>
       <c r="J15">
-        <v>1.062831750430155</v>
+        <v>1.044231556699631</v>
       </c>
       <c r="K15">
-        <v>1.067563337340617</v>
+        <v>1.051872308214244</v>
       </c>
       <c r="L15">
-        <v>1.073368691544934</v>
+        <v>1.049423037553099</v>
       </c>
       <c r="M15">
-        <v>1.079851059371469</v>
+        <v>1.055613127642578</v>
       </c>
       <c r="N15">
-        <v>1.064341093424272</v>
+        <v>1.045714485285178</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057072214817931</v>
+        <v>1.018991381532202</v>
       </c>
       <c r="D16">
-        <v>1.064631607065513</v>
+        <v>1.04038162634171</v>
       </c>
       <c r="E16">
-        <v>1.070543866509607</v>
+        <v>1.038240973116171</v>
       </c>
       <c r="F16">
-        <v>1.077063082048349</v>
+        <v>1.044607596801919</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053918208301536</v>
+        <v>1.059392450171766</v>
       </c>
       <c r="J16">
-        <v>1.06324731811502</v>
+        <v>1.046396811224123</v>
       </c>
       <c r="K16">
-        <v>1.067970094608693</v>
+        <v>1.054023492877467</v>
       </c>
       <c r="L16">
-        <v>1.073862630468873</v>
+        <v>1.051917721147566</v>
       </c>
       <c r="M16">
-        <v>1.080360372842412</v>
+        <v>1.058181140487937</v>
       </c>
       <c r="N16">
-        <v>1.064757251262915</v>
+        <v>1.047882814719453</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.057467085737419</v>
+        <v>1.021064179984879</v>
       </c>
       <c r="D17">
-        <v>1.064957197413626</v>
+        <v>1.042045165291632</v>
       </c>
       <c r="E17">
-        <v>1.070924018192808</v>
+        <v>1.040122698666874</v>
       </c>
       <c r="F17">
-        <v>1.077452429811005</v>
+        <v>1.046532383049494</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054047868208956</v>
+        <v>1.060223652528291</v>
       </c>
       <c r="J17">
-        <v>1.063507917621736</v>
+        <v>1.047736284159139</v>
       </c>
       <c r="K17">
-        <v>1.068225133079193</v>
+        <v>1.055354074725463</v>
       </c>
       <c r="L17">
-        <v>1.074172501172912</v>
+        <v>1.053461995084712</v>
       </c>
       <c r="M17">
-        <v>1.08067989945022</v>
+        <v>1.059770921771209</v>
       </c>
       <c r="N17">
-        <v>1.065018220850822</v>
+        <v>1.049224189859676</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.057697454270839</v>
+        <v>1.022263473286998</v>
       </c>
       <c r="D18">
-        <v>1.065147146517236</v>
+        <v>1.043008103539963</v>
       </c>
       <c r="E18">
-        <v>1.071145840881533</v>
+        <v>1.04121217070267</v>
       </c>
       <c r="F18">
-        <v>1.077679620221188</v>
+        <v>1.047646799071376</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054123365779453</v>
+        <v>1.060703470260339</v>
       </c>
       <c r="J18">
-        <v>1.063659893655628</v>
+        <v>1.048510998645127</v>
       </c>
       <c r="K18">
-        <v>1.068373853005375</v>
+        <v>1.05612357680956</v>
       </c>
       <c r="L18">
-        <v>1.074353256224744</v>
+        <v>1.054355524925301</v>
       </c>
       <c r="M18">
-        <v>1.080866290888062</v>
+        <v>1.060690823224592</v>
       </c>
       <c r="N18">
-        <v>1.065170412708114</v>
+        <v>1.050000004529095</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.057776011948907</v>
+        <v>1.022670776338641</v>
       </c>
       <c r="D19">
-        <v>1.065211920631361</v>
+        <v>1.043335208021251</v>
       </c>
       <c r="E19">
-        <v>1.071221491357424</v>
+        <v>1.041582298748698</v>
       </c>
       <c r="F19">
-        <v>1.077757101595923</v>
+        <v>1.048025403549741</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054149086294008</v>
+        <v>1.060866236757203</v>
       </c>
       <c r="J19">
-        <v>1.063711708917158</v>
+        <v>1.048774056620139</v>
       </c>
       <c r="K19">
-        <v>1.068424555904981</v>
+        <v>1.056384852759936</v>
       </c>
       <c r="L19">
-        <v>1.074414891162454</v>
+        <v>1.054658989055534</v>
       </c>
       <c r="M19">
-        <v>1.080929848409274</v>
+        <v>1.061003250633405</v>
       </c>
       <c r="N19">
-        <v>1.065222301553259</v>
+        <v>1.050263436076605</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.057424714959773</v>
+        <v>1.020842801552077</v>
       </c>
       <c r="D20">
-        <v>1.064922260738357</v>
+        <v>1.041867450660776</v>
       </c>
       <c r="E20">
-        <v>1.070883222547021</v>
+        <v>1.039921650927484</v>
       </c>
       <c r="F20">
-        <v>1.077410647119308</v>
+        <v>1.0463267332649</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054033970461048</v>
+        <v>1.060134992975663</v>
       </c>
       <c r="J20">
-        <v>1.06347996057548</v>
+        <v>1.047593255557301</v>
       </c>
       <c r="K20">
-        <v>1.068197773966788</v>
+        <v>1.055212002720536</v>
       </c>
       <c r="L20">
-        <v>1.074139253659175</v>
+        <v>1.053297060121052</v>
       </c>
       <c r="M20">
-        <v>1.080645615508411</v>
+        <v>1.059601122197528</v>
       </c>
       <c r="N20">
-        <v>1.064990224102353</v>
+        <v>1.049080958140818</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056283167839572</v>
+        <v>1.014783450504755</v>
       </c>
       <c r="D21">
-        <v>1.063980994218394</v>
+        <v>1.037007523317262</v>
       </c>
       <c r="E21">
-        <v>1.069784498121802</v>
+        <v>1.034425817438625</v>
       </c>
       <c r="F21">
-        <v>1.07628535505936</v>
+        <v>1.040705222044632</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053658180462693</v>
+        <v>1.057697971693019</v>
       </c>
       <c r="J21">
-        <v>1.062726205276909</v>
+        <v>1.043675826187382</v>
       </c>
       <c r="K21">
-        <v>1.067460018731884</v>
+        <v>1.051320132555305</v>
       </c>
       <c r="L21">
-        <v>1.073243280396678</v>
+        <v>1.048783071354629</v>
       </c>
       <c r="M21">
-        <v>1.079721747940335</v>
+        <v>1.05495438648236</v>
       </c>
       <c r="N21">
-        <v>1.064235398384802</v>
+        <v>1.045157965571859</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.055565858020399</v>
+        <v>1.010879714403354</v>
       </c>
       <c r="D22">
-        <v>1.063389528818651</v>
+        <v>1.033881027325195</v>
       </c>
       <c r="E22">
-        <v>1.069094472660991</v>
+        <v>1.030892257214578</v>
       </c>
       <c r="F22">
-        <v>1.075578659892344</v>
+        <v>1.037090980737846</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053420729707932</v>
+        <v>1.05611806824593</v>
       </c>
       <c r="J22">
-        <v>1.062252047695045</v>
+        <v>1.04114970350419</v>
       </c>
       <c r="K22">
-        <v>1.066995809254553</v>
+        <v>1.048809904237888</v>
       </c>
       <c r="L22">
-        <v>1.072680065544719</v>
+        <v>1.045875606912015</v>
       </c>
       <c r="M22">
-        <v>1.079141033478209</v>
+        <v>1.051961808099951</v>
       </c>
       <c r="N22">
-        <v>1.063760567444785</v>
+        <v>1.042628255504706</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.055946077000973</v>
+        <v>1.012958385440284</v>
       </c>
       <c r="D23">
-        <v>1.063703042707916</v>
+        <v>1.035545382927026</v>
       </c>
       <c r="E23">
-        <v>1.069460193418084</v>
+        <v>1.032773125524549</v>
       </c>
       <c r="F23">
-        <v>1.075953214306122</v>
+        <v>1.039014782638874</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053546718270778</v>
+        <v>1.056960249854961</v>
       </c>
       <c r="J23">
-        <v>1.062503430327909</v>
+        <v>1.042495021754945</v>
       </c>
       <c r="K23">
-        <v>1.067241928784905</v>
+        <v>1.050146810065647</v>
       </c>
       <c r="L23">
-        <v>1.072978624882654</v>
+        <v>1.047423699447248</v>
       </c>
       <c r="M23">
-        <v>1.079448866014607</v>
+        <v>1.053555182685583</v>
       </c>
       <c r="N23">
-        <v>1.064012307069822</v>
+        <v>1.043975484261688</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.057443860345067</v>
+        <v>1.020942862954866</v>
       </c>
       <c r="D24">
-        <v>1.064938047001446</v>
+        <v>1.041947775000416</v>
       </c>
       <c r="E24">
-        <v>1.070901656075638</v>
+        <v>1.040012520745867</v>
       </c>
       <c r="F24">
-        <v>1.077429526639733</v>
+        <v>1.046419683081652</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054040250659434</v>
+        <v>1.060175069862511</v>
       </c>
       <c r="J24">
-        <v>1.063492593245484</v>
+        <v>1.047657904312048</v>
       </c>
       <c r="K24">
-        <v>1.068210136494698</v>
+        <v>1.0552762193125</v>
       </c>
       <c r="L24">
-        <v>1.074154276740242</v>
+        <v>1.053371609395528</v>
       </c>
       <c r="M24">
-        <v>1.08066110689355</v>
+        <v>1.059677870110529</v>
       </c>
       <c r="N24">
-        <v>1.065002874712198</v>
+        <v>1.049145698704212</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.059183797082044</v>
+        <v>1.029829181042513</v>
       </c>
       <c r="D25">
-        <v>1.066372678867499</v>
+        <v>1.049089938596101</v>
       </c>
       <c r="E25">
-        <v>1.07257778911539</v>
+        <v>1.048097593368759</v>
       </c>
       <c r="F25">
-        <v>1.079146249928127</v>
+        <v>1.05469009133564</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054607832958299</v>
+        <v>1.063710290269613</v>
       </c>
       <c r="J25">
-        <v>1.06463939079545</v>
+        <v>1.053392749564217</v>
       </c>
       <c r="K25">
-        <v>1.069332128124436</v>
+        <v>1.060971160843464</v>
       </c>
       <c r="L25">
-        <v>1.075519051541437</v>
+        <v>1.05999247280683</v>
       </c>
       <c r="M25">
-        <v>1.082068508217472</v>
+        <v>1.066494847410449</v>
       </c>
       <c r="N25">
-        <v>1.066151300846224</v>
+        <v>1.054888688094435</v>
       </c>
     </row>
   </sheetData>
